--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="272">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -994,6 +994,9 @@
   <si>
     <t>mất quá nhiều thời gian
 không thể làm đc</t>
+  </si>
+  <si>
+    <t>Đã có xuất ra file excel (hoặc yêu cầu giải thích thêm)</t>
   </si>
 </sst>
 </file>
@@ -1736,6 +1739,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,6 +1752,98 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1755,18 +1856,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1779,83 +1868,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1878,18 +1939,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1955,52 +2004,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2443,13 +2446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:5" s="30" customFormat="1">
       <c r="A2" s="41"/>
@@ -2746,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2762,13 +2765,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" s="30" customFormat="1">
@@ -2851,7 +2854,7 @@
         <v>99</v>
       </c>
       <c r="E6" s="34"/>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="101" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2924,7 +2927,7 @@
         <v>165</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="169" t="s">
+      <c r="F10" s="101" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3080,7 +3083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="99.75">
+    <row r="20" spans="1:6" ht="85.5">
       <c r="A20" s="39">
         <v>17</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>109</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="168" t="s">
+      <c r="F20" s="100" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3130,6 +3133,9 @@
         <v>239</v>
       </c>
       <c r="E22" s="96"/>
+      <c r="F22" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="78.75">
       <c r="A23" s="39">
@@ -3162,7 +3168,7 @@
       <c r="E24" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="168" t="s">
+      <c r="F24" s="100" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3182,6 +3188,9 @@
       <c r="E25" s="34" t="s">
         <v>144</v>
       </c>
+      <c r="F25" s="100" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="47.25">
       <c r="A26" s="39">
@@ -3218,6 +3227,9 @@
       </c>
       <c r="E27" s="34" t="s">
         <v>136</v>
+      </c>
+      <c r="F27" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63">
@@ -3280,7 +3292,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3295,20 +3307,20 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="47"/>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="48" t="s">
@@ -5325,101 +5337,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="120" t="s">
+      <c r="M3" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="123" t="s">
+      <c r="N3" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="120" t="s">
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="120" t="s">
+      <c r="S3" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="117" t="s">
+      <c r="T3" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="114" t="s">
+      <c r="U3" s="107" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="115"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="104"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5432,10 +5444,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="116"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5610,6 +5622,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5623,11 +5640,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5691,122 +5703,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="153" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="138" t="s">
+      <c r="L1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="147" t="s">
+      <c r="M1" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="138" t="s">
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="138" t="s">
+      <c r="R1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="138" t="s">
+      <c r="S1" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="138" t="s">
+      <c r="T1" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="138" t="s">
+      <c r="U1" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="138" t="s">
+      <c r="V1" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="138" t="s">
+      <c r="W1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="141" t="s">
+      <c r="X1" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="144" t="s">
+      <c r="Y1" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="135" t="s">
+      <c r="Z1" s="150" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="136"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="151"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="163"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="110"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="140"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="139"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5819,16 +5831,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="137"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="152"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6507,13 +6519,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6535,13 +6547,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6558,6 +6563,13 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">
@@ -6578,7 +6590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="274">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -981,11 +981,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Thời điểm bắt đầu tính thâm niên: Ví dụ: Tính thâm niên từ
-2/2000 thì đến 5/2014 thi thâm niên đc 14 năm (dùng để tính lương)
-Ngoài ra còn có "Hạn điều chỉnh" là thời gian sẽ điều chỉnh bậc lương hoặc hệ số phụ cấp lần tiếp theo</t>
-  </si>
-  <si>
     <t>Sẽ làm sau cùng</t>
   </si>
   <si>
@@ -997,6 +992,16 @@
   </si>
   <si>
     <t>Đã có xuất ra file excel (hoặc yêu cầu giải thích thêm)</t>
+  </si>
+  <si>
+    <t>Đã thêm trường "Thời điểm áp dụng"</t>
+  </si>
+  <si>
+    <t>Chưa hiểu (Đã có mục chỉnh thời hạn luân chuyển tại mục luân chuyển)
+Làm theo cách mới rất rắc rối</t>
+  </si>
+  <si>
+    <t>Đã làm (nhờ xem lại sql tìm thời người sắp nâng lương)</t>
   </si>
 </sst>
 </file>
@@ -1752,6 +1757,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1820,18 +1861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1844,28 +1873,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1880,18 +1982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1917,91 +2007,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2749,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2855,7 +2860,7 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="78.75">
@@ -2928,7 +2933,7 @@
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25">
@@ -3033,6 +3038,9 @@
       <c r="E16" s="34" t="s">
         <v>125</v>
       </c>
+      <c r="F16" s="100" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="94.5">
       <c r="A17" s="39">
@@ -3065,6 +3073,9 @@
       <c r="E18" s="34" t="s">
         <v>144</v>
       </c>
+      <c r="F18" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="110.25">
       <c r="A19" s="39">
@@ -3082,8 +3093,11 @@
       <c r="E19" s="34" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="85.5">
+      <c r="F19" s="100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="47.25">
       <c r="A20" s="39">
         <v>17</v>
       </c>
@@ -3098,7 +3112,7 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="100" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75">
@@ -3169,7 +3183,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63">
@@ -3189,7 +3203,7 @@
         <v>144</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25">
@@ -5337,101 +5351,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="113" t="s">
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="110" t="s">
+      <c r="T3" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="107" t="s">
+      <c r="U3" s="116" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="117"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="130"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5444,10 +5458,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="109"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="118"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5622,11 +5636,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5640,6 +5649,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5703,122 +5717,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="165" t="s">
+      <c r="F1" s="167"/>
+      <c r="G1" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="137" t="s">
+      <c r="L1" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="137" t="s">
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="R1" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="S1" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="137" t="s">
+      <c r="T1" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="U1" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="137" t="s">
+      <c r="V1" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="137" t="s">
+      <c r="W1" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="153" t="s">
+      <c r="X1" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="156" t="s">
+      <c r="Y1" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="150" t="s">
+      <c r="Z1" s="137" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="151"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="138"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="142"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="139"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="142"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5831,16 +5845,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="152"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="139"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6519,13 +6533,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6547,6 +6561,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6563,13 +6584,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="273">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -979,9 +979,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Sẽ làm sau cùng</t>
   </si>
   <si>
     <t>Yêu cầu chụp màn hình gửi lại để kiểm tra</t>
@@ -1757,6 +1754,98 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1769,18 +1858,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1793,83 +1870,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1892,18 +1941,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1967,46 +2004,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2754,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2860,7 +2857,7 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="78.75">
@@ -2897,6 +2894,9 @@
         <v>111</v>
       </c>
       <c r="E8" s="34"/>
+      <c r="F8" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="47.25">
       <c r="A9" s="39">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25">
@@ -3039,7 +3039,7 @@
         <v>125</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="94.5">
@@ -3094,7 +3094,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75">
@@ -3183,7 +3183,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63">
@@ -3203,7 +3203,7 @@
         <v>144</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25">
@@ -5351,101 +5351,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="122" t="s">
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="119" t="s">
+      <c r="T3" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="116" t="s">
+      <c r="U3" s="107" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="117"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="106"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5458,10 +5458,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="118"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5636,6 +5636,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5649,11 +5654,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5717,122 +5717,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="155" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="140" t="s">
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="140" t="s">
+      <c r="R1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="140" t="s">
+      <c r="S1" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="140" t="s">
+      <c r="T1" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="140" t="s">
+      <c r="U1" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="140" t="s">
+      <c r="V1" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="140" t="s">
+      <c r="W1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="143" t="s">
+      <c r="X1" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="146" t="s">
+      <c r="Y1" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="137" t="s">
+      <c r="Z1" s="150" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="138"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="151"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="165"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="142"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="139"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5845,16 +5845,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="152"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6533,13 +6533,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6561,13 +6561,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6584,6 +6577,13 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chinh sua (2)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="272">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -979,9 +979,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Yêu cầu chụp màn hình gửi lại để kiểm tra</t>
   </si>
   <si>
     <t>mất quá nhiều thời gian
@@ -1754,6 +1751,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1822,18 +1855,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1846,28 +1867,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1882,18 +1976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1919,91 +2001,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2751,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2932,8 +2929,8 @@
         <v>165</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="101" t="s">
-        <v>267</v>
+      <c r="F10" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25">
@@ -3039,7 +3036,7 @@
         <v>125</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="94.5">
@@ -3094,7 +3091,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
@@ -3112,7 +3109,7 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75">
@@ -3183,7 +3180,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63">
@@ -3203,7 +3200,7 @@
         <v>144</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25">
@@ -5351,101 +5348,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="113" t="s">
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="110" t="s">
+      <c r="T3" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="107" t="s">
+      <c r="U3" s="116" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="117"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="130"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5458,10 +5455,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="109"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="118"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5636,11 +5633,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5654,6 +5646,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5717,122 +5714,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="165" t="s">
+      <c r="F1" s="167"/>
+      <c r="G1" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="137" t="s">
+      <c r="L1" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="137" t="s">
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="R1" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="S1" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="137" t="s">
+      <c r="T1" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="U1" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="137" t="s">
+      <c r="V1" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="137" t="s">
+      <c r="W1" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="153" t="s">
+      <c r="X1" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="156" t="s">
+      <c r="Y1" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="150" t="s">
+      <c r="Z1" s="137" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="151"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="138"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="142"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="139"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="142"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5845,16 +5842,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="152"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="139"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6533,13 +6530,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6561,6 +6558,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6577,13 +6581,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">
@@ -6604,7 +6601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chinh sua (2)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="271">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -991,11 +991,7 @@
     <t>Đã thêm trường "Thời điểm áp dụng"</t>
   </si>
   <si>
-    <t>Chưa hiểu (Đã có mục chỉnh thời hạn luân chuyển tại mục luân chuyển)
-Làm theo cách mới rất rắc rối</t>
-  </si>
-  <si>
-    <t>Đã làm (nhờ xem lại sql tìm thời người sắp nâng lương)</t>
+    <t>Ghi chú cập nhật</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1415,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1741,9 +1737,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,6 +1744,98 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1763,18 +1848,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1787,83 +1860,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1886,18 +1931,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1961,46 +1994,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2445,13 +2438,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5" s="30" customFormat="1">
       <c r="A2" s="41"/>
@@ -2748,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2764,13 +2757,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
       <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" s="30" customFormat="1">
@@ -2781,7 +2774,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="98"/>
     </row>
-    <row r="3" spans="1:6" s="30" customFormat="1">
+    <row r="3" spans="1:6" s="30" customFormat="1" ht="15.75">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2790,9 @@
       <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="32" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="39">
@@ -2853,7 +2848,7 @@
         <v>99</v>
       </c>
       <c r="E6" s="34"/>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="99" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2985,6 +2980,9 @@
       <c r="E13" s="34" t="s">
         <v>142</v>
       </c>
+      <c r="F13" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="78.75">
       <c r="A14" s="39">
@@ -3035,8 +3033,8 @@
       <c r="E16" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="100" t="s">
-        <v>270</v>
+      <c r="F16" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="94.5">
@@ -3090,8 +3088,8 @@
       <c r="E19" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="100" t="s">
-        <v>271</v>
+      <c r="F19" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
@@ -3257,6 +3255,9 @@
         <v>240</v>
       </c>
       <c r="E28" s="34"/>
+      <c r="F28" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="39">
@@ -3318,20 +3319,20 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="47"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="48" t="s">
@@ -5348,101 +5349,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="122" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="119" t="s">
+      <c r="T3" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="116" t="s">
+      <c r="U3" s="106" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="117"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="107"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="106"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5455,10 +5456,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="118"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5633,6 +5634,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5646,11 +5652,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5714,122 +5715,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="155" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="140" t="s">
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="140" t="s">
+      <c r="R1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="140" t="s">
+      <c r="S1" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="140" t="s">
+      <c r="T1" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="140" t="s">
+      <c r="U1" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="140" t="s">
+      <c r="V1" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="140" t="s">
+      <c r="W1" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="143" t="s">
+      <c r="X1" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="146" t="s">
+      <c r="Y1" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="137" t="s">
+      <c r="Z1" s="149" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="138"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="150"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="165"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="112"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="142"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="138"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5842,16 +5843,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="139"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="151"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6530,13 +6531,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="148"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6558,13 +6559,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6581,6 +6575,13 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">
@@ -6601,7 +6602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="272">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>Ghi chú cập nhật</t>
+  </si>
+  <si>
+    <t>Đang sửa</t>
   </si>
 </sst>
 </file>
@@ -1744,6 +1747,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1812,18 +1851,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1836,28 +1863,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1872,18 +1972,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1909,91 +1997,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2998,6 +3001,9 @@
         <v>262</v>
       </c>
       <c r="E14" s="34"/>
+      <c r="F14" s="99" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="63">
       <c r="A15" s="39">
@@ -3051,6 +3057,9 @@
         <v>115</v>
       </c>
       <c r="E17" s="34"/>
+      <c r="F17" s="100" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="94.5">
       <c r="A18" s="39">
@@ -3160,6 +3169,9 @@
         <v>264</v>
       </c>
       <c r="E23" s="34"/>
+      <c r="F23" s="100" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="47.25">
       <c r="A24" s="39">
@@ -5349,101 +5361,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="112" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="S3" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="109" t="s">
+      <c r="T3" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="106" t="s">
+      <c r="U3" s="115" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="107"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="129"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5456,10 +5468,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="108"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5634,11 +5646,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5652,6 +5659,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5715,122 +5727,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="164" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="I1" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="J1" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="136" t="s">
+      <c r="L1" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="158" t="s">
+      <c r="M1" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="136" t="s">
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="136" t="s">
+      <c r="S1" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="136" t="s">
+      <c r="T1" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="136" t="s">
+      <c r="U1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="136" t="s">
+      <c r="V1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="136" t="s">
+      <c r="W1" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="152" t="s">
+      <c r="X1" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="155" t="s">
+      <c r="Y1" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="149" t="s">
+      <c r="Z1" s="136" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="150"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="141"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="132"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="138"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="141"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5843,16 +5855,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="151"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="138"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6531,13 +6543,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="146" t="s">
+      <c r="G16" s="133" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6559,6 +6571,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6575,13 +6594,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -1747,6 +1747,98 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1759,18 +1851,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1783,83 +1863,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1882,18 +1934,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1957,46 +1997,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2744,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3803,6 +3803,7 @@
     <mergeCell ref="D1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5361,101 +5362,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="130" t="s">
+      <c r="J3" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="121" t="s">
+      <c r="M3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="121" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="121" t="s">
+      <c r="S3" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="118" t="s">
+      <c r="T3" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="115" t="s">
+      <c r="U3" s="106" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="116"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="107"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="105"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5468,10 +5469,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="117"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5646,6 +5647,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5659,11 +5665,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5727,122 +5728,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="154" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="136" t="s">
+      <c r="J1" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="159" t="s">
+      <c r="K1" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="139" t="s">
+      <c r="L1" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="139" t="s">
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="139" t="s">
+      <c r="R1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="139" t="s">
+      <c r="S1" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="139" t="s">
+      <c r="T1" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="139" t="s">
+      <c r="U1" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="139" t="s">
+      <c r="V1" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="139" t="s">
+      <c r="W1" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="142" t="s">
+      <c r="X1" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="145" t="s">
+      <c r="Y1" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="136" t="s">
+      <c r="Z1" s="149" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="137"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="150"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="164"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="141"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="138"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5855,16 +5856,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="151"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6543,13 +6544,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="148"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6571,13 +6572,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6594,6 +6588,13 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">
@@ -6614,7 +6615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/information/Phan mem QLCB_HQHT 18_4.xlsx
+++ b/information/Phan mem QLCB_HQHT 18_4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="271">
   <si>
     <t>DANH SÁCH BÁO LỖI PHẦN MỀM TCCB</t>
   </si>
@@ -988,13 +988,11 @@
     <t>Đã có xuất ra file excel (hoặc yêu cầu giải thích thêm)</t>
   </si>
   <si>
-    <t>Đã thêm trường "Thời điểm áp dụng"</t>
-  </si>
-  <si>
     <t>Ghi chú cập nhật</t>
   </si>
   <si>
-    <t>Đang sửa</t>
+    <t>Đã xong bảng lương hệ số tăng thêm 0.5.
+Đang hoàn thiện phần hệ số 0.3 (xong trong 1, 2 ngày tới)</t>
   </si>
 </sst>
 </file>
@@ -1747,6 +1745,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1815,18 +1849,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1839,28 +1861,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1875,18 +1970,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1912,91 +1995,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2744,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2794,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5">
@@ -3057,8 +3055,8 @@
         <v>115</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="100" t="s">
-        <v>271</v>
+      <c r="F17" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="94.5">
@@ -3115,8 +3113,8 @@
         <v>109</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="100" t="s">
-        <v>269</v>
+      <c r="F20" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75">
@@ -3170,7 +3168,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25">
@@ -5362,101 +5360,101 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="112" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="S3" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="109" t="s">
+      <c r="T3" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="106" t="s">
+      <c r="U3" s="115" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="107"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="1:21" ht="24">
-      <c r="A5" s="129"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5469,10 +5467,10 @@
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="108"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="4">
@@ -5647,11 +5645,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="T3:T5"/>
@@ -5665,6 +5658,11 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:U6">
     <cfRule type="expression" dxfId="5" priority="28">
@@ -5728,122 +5726,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="164" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="I1" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="J1" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="136" t="s">
+      <c r="L1" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="158" t="s">
+      <c r="M1" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="136" t="s">
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="136" t="s">
+      <c r="S1" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="136" t="s">
+      <c r="T1" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="136" t="s">
+      <c r="U1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="136" t="s">
+      <c r="V1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="136" t="s">
+      <c r="W1" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="152" t="s">
+      <c r="X1" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="155" t="s">
+      <c r="Y1" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="149" t="s">
+      <c r="Z1" s="136" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="150"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26" ht="24">
-      <c r="A3" s="141"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="132"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="138"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="141"/>
       <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
@@ -5856,16 +5854,16 @@
       <c r="P3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="151"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="138"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="62">
@@ -6544,13 +6542,13 @@
       <c r="Z15" s="95"/>
     </row>
     <row r="16" spans="1:26" ht="89.25" customHeight="1">
-      <c r="G16" s="146" t="s">
+      <c r="G16" s="133" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:17" ht="24">
@@ -6572,6 +6570,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F2"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="W1:W3"/>
@@ -6588,13 +6593,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z11">
     <cfRule type="expression" dxfId="2" priority="58">
